--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N2">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P2">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q2">
-        <v>104240.1540180091</v>
+        <v>86152.33167095527</v>
       </c>
       <c r="R2">
-        <v>938161.3861620816</v>
+        <v>775370.9850385976</v>
       </c>
       <c r="S2">
-        <v>0.1646978185763281</v>
+        <v>0.2279587000776719</v>
       </c>
       <c r="T2">
-        <v>0.1646978185763281</v>
+        <v>0.2279587000776718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P3">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q3">
-        <v>9519.185572941582</v>
+        <v>9633.408243072932</v>
       </c>
       <c r="R3">
-        <v>85672.67015647425</v>
+        <v>86700.67418765639</v>
       </c>
       <c r="S3">
-        <v>0.01504016483145136</v>
+        <v>0.02548995689165755</v>
       </c>
       <c r="T3">
-        <v>0.01504016483145136</v>
+        <v>0.02548995689165755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N4">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O4">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P4">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q4">
-        <v>516.5134748086732</v>
+        <v>143.1248718205822</v>
       </c>
       <c r="R4">
-        <v>4648.62127327806</v>
+        <v>1288.12384638524</v>
       </c>
       <c r="S4">
-        <v>0.000816083239397083</v>
+        <v>0.0003787077969475641</v>
       </c>
       <c r="T4">
-        <v>0.000816083239397083</v>
+        <v>0.000378707796947564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N5">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O5">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P5">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q5">
-        <v>10516.87034764186</v>
+        <v>10328.14172574641</v>
       </c>
       <c r="R5">
-        <v>94651.83312877674</v>
+        <v>92953.27553171772</v>
       </c>
       <c r="S5">
-        <v>0.01661649122474854</v>
+        <v>0.02732821870696803</v>
       </c>
       <c r="T5">
-        <v>0.01661649122474854</v>
+        <v>0.02732821870696803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H6">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N6">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O6">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P6">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q6">
-        <v>100.5251307044761</v>
+        <v>150.8770390771191</v>
       </c>
       <c r="R6">
-        <v>904.7261763402848</v>
+        <v>1357.893351694072</v>
       </c>
       <c r="S6">
-        <v>0.0001588281396463318</v>
+        <v>0.0003992199982578464</v>
       </c>
       <c r="T6">
-        <v>0.0001588281396463318</v>
+        <v>0.0003992199982578463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N7">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P7">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q7">
-        <v>125150.7996863236</v>
+        <v>102208.1314557881</v>
       </c>
       <c r="R7">
-        <v>1126357.197176913</v>
+        <v>919873.1831020929</v>
       </c>
       <c r="S7">
-        <v>0.1977363128018735</v>
+        <v>0.2704422774419717</v>
       </c>
       <c r="T7">
-        <v>0.1977363128018735</v>
+        <v>0.2704422774419717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P8">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q8">
-        <v>11428.74066178311</v>
+        <v>11428.7406617831</v>
       </c>
       <c r="R8">
         <v>102858.6659560479</v>
       </c>
       <c r="S8">
-        <v>0.01805723210793668</v>
+        <v>0.03024039877104372</v>
       </c>
       <c r="T8">
-        <v>0.01805723210793668</v>
+        <v>0.03024039877104371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N9">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O9">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P9">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q9">
-        <v>620.1264285344333</v>
+        <v>169.7983726024055</v>
       </c>
       <c r="R9">
-        <v>5581.1378568099</v>
+        <v>1528.18535342165</v>
       </c>
       <c r="S9">
-        <v>0.0009797900912877136</v>
+        <v>0.0004492857656085694</v>
       </c>
       <c r="T9">
-        <v>0.0009797900912877136</v>
+        <v>0.0004492857656085692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N10">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O10">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P10">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q10">
-        <v>12626.56167965149</v>
+        <v>12252.94831521064</v>
       </c>
       <c r="R10">
-        <v>113639.0551168634</v>
+        <v>110276.5348368957</v>
       </c>
       <c r="S10">
-        <v>0.01994977064595263</v>
+        <v>0.03242124868683017</v>
       </c>
       <c r="T10">
-        <v>0.01994977064595264</v>
+        <v>0.03242124868683016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N11">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O11">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P11">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q11">
-        <v>120.6905401738361</v>
+        <v>178.9952743537078</v>
       </c>
       <c r="R11">
-        <v>1086.214861564525</v>
+        <v>1610.95746918337</v>
       </c>
       <c r="S11">
-        <v>0.0001906891722933887</v>
+        <v>0.0004736207281952607</v>
       </c>
       <c r="T11">
-        <v>0.0001906891722933887</v>
+        <v>0.0004736207281952606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N12">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P12">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q12">
-        <v>169644.6111737872</v>
+        <v>47483.01977424868</v>
       </c>
       <c r="R12">
-        <v>1526801.500564085</v>
+        <v>427347.1779682381</v>
       </c>
       <c r="S12">
-        <v>0.2680358414352021</v>
+        <v>0.1256398666589925</v>
       </c>
       <c r="T12">
-        <v>0.2680358414352021</v>
+        <v>0.1256398666589925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P13">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q13">
-        <v>15491.9047312018</v>
+        <v>5309.471087170289</v>
       </c>
       <c r="R13">
-        <v>139427.1425808162</v>
+        <v>47785.2397845326</v>
       </c>
       <c r="S13">
-        <v>0.02447696800582649</v>
+        <v>0.01404883772332498</v>
       </c>
       <c r="T13">
-        <v>0.0244769680058265</v>
+        <v>0.01404883772332498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N14">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O14">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P14">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q14">
-        <v>840.59476336538</v>
+        <v>78.88354252325668</v>
       </c>
       <c r="R14">
-        <v>7565.35287028842</v>
+        <v>709.9518827093101</v>
       </c>
       <c r="S14">
-        <v>0.001328126623921186</v>
+        <v>0.0002087255151700754</v>
       </c>
       <c r="T14">
-        <v>0.001328126623921186</v>
+        <v>0.0002087255151700753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H15">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N15">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O15">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P15">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q15">
-        <v>17115.5769837274</v>
+        <v>5692.374753917348</v>
       </c>
       <c r="R15">
-        <v>154040.1928535466</v>
+        <v>51231.37278525614</v>
       </c>
       <c r="S15">
-        <v>0.02704234485693589</v>
+        <v>0.01506199918319132</v>
       </c>
       <c r="T15">
-        <v>0.02704234485693589</v>
+        <v>0.01506199918319131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H16">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N16">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O16">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P16">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q16">
-        <v>163.5986331007217</v>
+        <v>83.15616409943534</v>
       </c>
       <c r="R16">
-        <v>1472.387697906495</v>
+        <v>748.405476894918</v>
       </c>
       <c r="S16">
-        <v>0.0002584832903173079</v>
+        <v>0.0002200308535345606</v>
       </c>
       <c r="T16">
-        <v>0.0002584832903173079</v>
+        <v>0.0002200308535345605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H17">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I17">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J17">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N17">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P17">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q17">
-        <v>12789.66066343965</v>
+        <v>13885.3943819235</v>
       </c>
       <c r="R17">
-        <v>115106.9459709568</v>
+        <v>124968.5494373116</v>
       </c>
       <c r="S17">
-        <v>0.02020746449814403</v>
+        <v>0.0367406939774819</v>
       </c>
       <c r="T17">
-        <v>0.02020746449814402</v>
+        <v>0.03674069397748189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H18">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I18">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J18">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P18">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q18">
-        <v>1167.948708606086</v>
+        <v>1552.64135169352</v>
       </c>
       <c r="R18">
-        <v>10511.53837745477</v>
+        <v>13973.77216524168</v>
       </c>
       <c r="S18">
-        <v>0.001845340754995709</v>
+        <v>0.004108282357008081</v>
       </c>
       <c r="T18">
-        <v>0.001845340754995709</v>
+        <v>0.004108282357008081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H19">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I19">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J19">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N19">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O19">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P19">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q19">
-        <v>63.37319944630666</v>
+        <v>23.06780620496</v>
       </c>
       <c r="R19">
-        <v>570.3587950167599</v>
+        <v>207.61025584464</v>
       </c>
       <c r="S19">
-        <v>0.0001001286673387498</v>
+        <v>6.103731627613215E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001001286673387498</v>
+        <v>6.103731627613213E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N20">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O20">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P20">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q20">
-        <v>1290.358828177592</v>
+        <v>1664.613346068464</v>
       </c>
       <c r="R20">
-        <v>11613.22945359833</v>
+        <v>14981.52011461618</v>
       </c>
       <c r="S20">
-        <v>0.002038746835934649</v>
+        <v>0.00440455977385508</v>
       </c>
       <c r="T20">
-        <v>0.002038746835934649</v>
+        <v>0.00440455977385508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H21">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I21">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J21">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N21">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O21">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P21">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q21">
-        <v>12.33384890851222</v>
+        <v>24.317243075488</v>
       </c>
       <c r="R21">
-        <v>111.00464017661</v>
+        <v>218.855187679392</v>
       </c>
       <c r="S21">
-        <v>1.948728903001276E-05</v>
+        <v>6.434332087647774E-05</v>
       </c>
       <c r="T21">
-        <v>1.948728903001276E-05</v>
+        <v>6.434332087647774E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H22">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>821.2295326666666</v>
+        <v>670.6815796666667</v>
       </c>
       <c r="N22">
-        <v>2463.688598</v>
+        <v>2012.044739</v>
       </c>
       <c r="O22">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738445</v>
       </c>
       <c r="P22">
-        <v>0.8346340193176814</v>
+        <v>0.8096423760738443</v>
       </c>
       <c r="Q22">
-        <v>116429.3650438305</v>
+        <v>56258.91127092124</v>
       </c>
       <c r="R22">
-        <v>1047864.285394475</v>
+        <v>506330.2014382912</v>
       </c>
       <c r="S22">
-        <v>0.1839565820061336</v>
+        <v>0.1488608379177265</v>
       </c>
       <c r="T22">
-        <v>0.1839565820061336</v>
+        <v>0.1488608379177264</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H23">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>224.983445</v>
       </c>
       <c r="O23">
-        <v>0.07621857613528174</v>
+        <v>0.09053284325954498</v>
       </c>
       <c r="P23">
-        <v>0.07621857613528175</v>
+        <v>0.09053284325954496</v>
       </c>
       <c r="Q23">
-        <v>10632.30136632859</v>
+        <v>6290.776454589159</v>
       </c>
       <c r="R23">
-        <v>95690.71229695731</v>
+        <v>56616.98809130243</v>
       </c>
       <c r="S23">
-        <v>0.0167988704350715</v>
+        <v>0.01664536751651064</v>
       </c>
       <c r="T23">
-        <v>0.0167988704350715</v>
+        <v>0.01664536751651063</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H24">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>4.06922</v>
+        <v>1.114203333333333</v>
       </c>
       <c r="N24">
-        <v>12.20766</v>
+        <v>3.34261</v>
       </c>
       <c r="O24">
-        <v>0.004135639682927041</v>
+        <v>0.001345058909591271</v>
       </c>
       <c r="P24">
-        <v>0.004135639682927041</v>
+        <v>0.00134505890959127</v>
       </c>
       <c r="Q24">
-        <v>576.9114260725933</v>
+        <v>93.46293139423778</v>
       </c>
       <c r="R24">
-        <v>5192.20283465334</v>
+        <v>841.1663825481401</v>
       </c>
       <c r="S24">
-        <v>0.0009115110609823088</v>
+        <v>0.0002473025155889298</v>
       </c>
       <c r="T24">
-        <v>0.0009115110609823087</v>
+        <v>0.0002473025155889297</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H25">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.85448733333332</v>
+        <v>80.40286633333334</v>
       </c>
       <c r="N25">
-        <v>248.563462</v>
+        <v>241.208599</v>
       </c>
       <c r="O25">
-        <v>0.08420687643438035</v>
+        <v>0.09706180953056985</v>
       </c>
       <c r="P25">
-        <v>0.08420687643438036</v>
+        <v>0.09706180953056984</v>
       </c>
       <c r="Q25">
-        <v>11746.64934409714</v>
+        <v>6744.449020387425</v>
       </c>
       <c r="R25">
-        <v>105719.8440968742</v>
+        <v>60700.04118348683</v>
       </c>
       <c r="S25">
-        <v>0.01855952287080864</v>
+        <v>0.01784578317972525</v>
       </c>
       <c r="T25">
-        <v>0.01855952287080864</v>
+        <v>0.01784578317972525</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7919616666666666</v>
+        <v>1.174552666666667</v>
       </c>
       <c r="N26">
-        <v>2.375885</v>
+        <v>3.523658</v>
       </c>
       <c r="O26">
-        <v>0.0008048884297294578</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="P26">
-        <v>0.0008048884297294579</v>
+        <v>0.001417912226449558</v>
       </c>
       <c r="Q26">
-        <v>112.2799294487628</v>
+        <v>98.52522606907689</v>
       </c>
       <c r="R26">
-        <v>1010.519365038865</v>
+        <v>886.727034621692</v>
       </c>
       <c r="S26">
-        <v>0.0001774005384424167</v>
+        <v>0.000260697325585413</v>
       </c>
       <c r="T26">
-        <v>0.0001774005384424167</v>
+        <v>0.0002606973255854129</v>
       </c>
     </row>
   </sheetData>
